--- a/data/trans_orig/P36BPD10_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26535</v>
+        <v>27134</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53191</v>
+        <v>52201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05409993584192134</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03861457047448658</v>
+        <v>0.03948557039802713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07740478483300428</v>
+        <v>0.07596424793848852</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -762,19 +762,19 @@
         <v>41458</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32027</v>
+        <v>31473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54800</v>
+        <v>53285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05661317240833668</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04373476536656954</v>
+        <v>0.04297800474980108</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07483143754716183</v>
+        <v>0.07276319086973192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -783,19 +783,19 @@
         <v>78635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64111</v>
+        <v>63702</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98218</v>
+        <v>97577</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05539649920025615</v>
+        <v>0.05539649920025616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04516487949650407</v>
+        <v>0.04487657464485863</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06919249551673699</v>
+        <v>0.06874068245431168</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>294627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266299</v>
+        <v>268059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>321935</v>
+        <v>322222</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4287463091029606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3875230124112815</v>
+        <v>0.3900838751732258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4684844510877719</v>
+        <v>0.468902590280889</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>522</v>
@@ -833,19 +833,19 @@
         <v>319829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298115</v>
+        <v>297802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>343639</v>
+        <v>342184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4367416091495359</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.407091303861973</v>
+        <v>0.4066630418487537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4692561797618535</v>
+        <v>0.4672688499403573</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>834</v>
@@ -854,19 +854,19 @@
         <v>614456</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>580427</v>
+        <v>579992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>651207</v>
+        <v>650956</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4328710354489838</v>
+        <v>0.4328710354489839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4088988338625963</v>
+        <v>0.408592081353054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4587614035576564</v>
+        <v>0.4585849012381766</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>355379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>327036</v>
+        <v>325916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>382326</v>
+        <v>383020</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.517153755055118</v>
+        <v>0.5171537550551181</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.475908238184553</v>
+        <v>0.4742784339394547</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5563669816368286</v>
+        <v>0.5573773479162324</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>653</v>
@@ -904,19 +904,19 @@
         <v>371019</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>348225</v>
+        <v>346828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>393684</v>
+        <v>392616</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5066452184421274</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4755190984442003</v>
+        <v>0.4736109496003854</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5375944748307308</v>
+        <v>0.536136407609346</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1029</v>
@@ -925,19 +925,19 @@
         <v>726399</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>690474</v>
+        <v>691109</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>761019</v>
+        <v>763666</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5117324653507601</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.486424209201209</v>
+        <v>0.4868715366792176</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5361220306737252</v>
+        <v>0.5379864488656541</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>85253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68231</v>
+        <v>69125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>105889</v>
+        <v>106072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08133157229109912</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06509272637709741</v>
+        <v>0.06594516901538799</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1010183237939383</v>
+        <v>0.1011932159377348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>100</v>
@@ -1050,19 +1050,19 @@
         <v>78900</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64740</v>
+        <v>63870</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96191</v>
+        <v>95668</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07373250848013656</v>
+        <v>0.0737325084801366</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06050034634093737</v>
+        <v>0.0596868086055849</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08989145425057969</v>
+        <v>0.08940270143550297</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>180</v>
@@ -1071,19 +1071,19 @@
         <v>164153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137283</v>
+        <v>140198</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>189912</v>
+        <v>190570</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07749282366266365</v>
+        <v>0.07749282366266363</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06480806067644458</v>
+        <v>0.06618426167631036</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0896531647175032</v>
+        <v>0.08996368244361556</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>552453</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>515618</v>
+        <v>515528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>588507</v>
+        <v>591357</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5270407708951791</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4919004771282663</v>
+        <v>0.4918140751848659</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5614366028764328</v>
+        <v>0.5641549152554107</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>731</v>
@@ -1121,19 +1121,19 @@
         <v>532065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>500264</v>
+        <v>502021</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>557450</v>
+        <v>559093</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.497219057997812</v>
+        <v>0.4972190579978121</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4675011189172056</v>
+        <v>0.4691431306048047</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5209422510060108</v>
+        <v>0.5224775694785346</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1221</v>
@@ -1142,19 +1142,19 @@
         <v>1084518</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1032550</v>
+        <v>1037072</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1127598</v>
+        <v>1130148</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5119760126130845</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4874431613584735</v>
+        <v>0.489577983681518</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5323131754794278</v>
+        <v>0.5335168209080136</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>410511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>373737</v>
+        <v>375315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>447013</v>
+        <v>447448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3916276568137217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3565453017774674</v>
+        <v>0.3580512320761793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4264512316471245</v>
+        <v>0.426865382415457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>684</v>
@@ -1192,19 +1192,19 @@
         <v>459117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>431180</v>
+        <v>432097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>488982</v>
+        <v>487973</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4290484335220513</v>
+        <v>0.4290484335220515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4029413064887887</v>
+        <v>0.4037982473328025</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4569580092973881</v>
+        <v>0.456015058968278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1077</v>
@@ -1213,19 +1213,19 @@
         <v>869627</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>829039</v>
+        <v>825691</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>920843</v>
+        <v>917068</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.410531163724252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3913701506860681</v>
+        <v>0.3897896513761802</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4347090239267415</v>
+        <v>0.4329269512742225</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>129756</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>106912</v>
+        <v>106879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>155708</v>
+        <v>158062</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.161574155200144</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1331289727611215</v>
+        <v>0.1330875046121071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1938902938335755</v>
+        <v>0.1968214577897913</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>134</v>
@@ -1338,19 +1338,19 @@
         <v>115644</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>98270</v>
+        <v>96099</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138890</v>
+        <v>136103</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.142373895646191</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1209834529485196</v>
+        <v>0.1183110398181385</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1709928096563888</v>
+        <v>0.1675615409008228</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>230</v>
@@ -1359,19 +1359,19 @@
         <v>245400</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>213614</v>
+        <v>210578</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>279566</v>
+        <v>276450</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1519194336389452</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1322412437916341</v>
+        <v>0.1303618817307379</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1730704766218309</v>
+        <v>0.1711415916402618</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>345946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>312566</v>
+        <v>314921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>378354</v>
+        <v>378616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4307771968507992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3892122377299606</v>
+        <v>0.3921444148943929</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4711329470927573</v>
+        <v>0.4714591267385257</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>436</v>
@@ -1409,19 +1409,19 @@
         <v>340913</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>315394</v>
+        <v>312300</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>366946</v>
+        <v>366335</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.419709345828585</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3882918582786631</v>
+        <v>0.3844833921104966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4517599807734343</v>
+        <v>0.4510070922961902</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>722</v>
@@ -1430,19 +1430,19 @@
         <v>686858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>640477</v>
+        <v>644663</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>725089</v>
+        <v>726215</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4252118022997497</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3964987584709944</v>
+        <v>0.3990899018109951</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4488791618500778</v>
+        <v>0.4495765333249815</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>327372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>296520</v>
+        <v>294242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>362200</v>
+        <v>358150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4076486479490567</v>
+        <v>0.4076486479490568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3692312749909032</v>
+        <v>0.3663954100477957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4510177677132461</v>
+        <v>0.4459746446885408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -1480,19 +1480,19 @@
         <v>355702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332258</v>
+        <v>329413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384326</v>
+        <v>383246</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.437916758525224</v>
+        <v>0.4379167585252239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4090547711637563</v>
+        <v>0.4055511875095634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4731563744469524</v>
+        <v>0.4718268962513117</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>771</v>
@@ -1501,19 +1501,19 @@
         <v>683073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>642150</v>
+        <v>643639</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>727350</v>
+        <v>727573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4228687640613051</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3975343854275237</v>
+        <v>0.3984562776019528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4502790016503949</v>
+        <v>0.4504171673531965</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>102452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81130</v>
+        <v>82897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127655</v>
+        <v>128840</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1036368787551361</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08206783512821507</v>
+        <v>0.08385567715781372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1291308325889429</v>
+        <v>0.1303297571851264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -1626,19 +1626,19 @@
         <v>102116</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86685</v>
+        <v>87052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122578</v>
+        <v>121549</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09130962779682902</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.077511110857319</v>
+        <v>0.07783949237958913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1096058344743093</v>
+        <v>0.1086856212706731</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>224</v>
@@ -1647,19 +1647,19 @@
         <v>204568</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177293</v>
+        <v>177607</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>236086</v>
+        <v>235758</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09709358664861743</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08414786024193636</v>
+        <v>0.0842968455337578</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.112052812278941</v>
+        <v>0.1118970931889068</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>471411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>435585</v>
+        <v>436183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503128</v>
+        <v>505326</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4768617815074195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4406216908272957</v>
+        <v>0.4412268209972347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5089455180457302</v>
+        <v>0.511169455814698</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>680</v>
@@ -1697,19 +1697,19 @@
         <v>505162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>474073</v>
+        <v>472434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>535385</v>
+        <v>536089</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4517028106451814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4239034221490433</v>
+        <v>0.4224379934629839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4787267902476411</v>
+        <v>0.4793562709755796</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1162</v>
@@ -1718,19 +1718,19 @@
         <v>976573</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>930760</v>
+        <v>932629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1021853</v>
+        <v>1021035</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4635074256978559</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4417633399312099</v>
+        <v>0.4426503344352333</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4849984790820294</v>
+        <v>0.4846103251045726</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>414706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>379933</v>
+        <v>382636</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>446852</v>
+        <v>452772</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4195013397374444</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3843260624907356</v>
+        <v>0.3870600502369257</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4520191049077138</v>
+        <v>0.458007239514387</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>742</v>
@@ -1768,19 +1768,19 @@
         <v>511072</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>481976</v>
+        <v>481616</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>540958</v>
+        <v>542032</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4569875615579898</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4309705897261153</v>
+        <v>0.4306484922544693</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.483710408730208</v>
+        <v>0.4846710337735128</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1180</v>
@@ -1789,19 +1789,19 @@
         <v>925779</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>878246</v>
+        <v>882174</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>968231</v>
+        <v>969343</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4393989876535266</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4168386730828352</v>
+        <v>0.4187028942507277</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4595479712189012</v>
+        <v>0.4600759997826883</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>354638</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>313215</v>
+        <v>315012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>398965</v>
+        <v>401204</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1005482026109967</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08880392794623457</v>
+        <v>0.08931337671193862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1131159616954857</v>
+        <v>0.1137507721132946</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>435</v>
@@ -1914,19 +1914,19 @@
         <v>338119</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>306963</v>
+        <v>306690</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>375027</v>
+        <v>373105</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09057564653785515</v>
+        <v>0.09057564653785513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08222960984811167</v>
+        <v>0.08215642965944484</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1004626951127086</v>
+        <v>0.09994788291972734</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>734</v>
@@ -1935,19 +1935,19 @@
         <v>692756</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>642888</v>
+        <v>638436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>747880</v>
+        <v>742288</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09542047305656899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08855163437999289</v>
+        <v>0.08793841322909633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1030132048637967</v>
+        <v>0.1022429286122808</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1664437</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1597300</v>
+        <v>1601990</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1729508</v>
+        <v>1727424</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4719072135572717</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4528724717267394</v>
+        <v>0.4542020184409024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4903565327334072</v>
+        <v>0.4897655775938498</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2369</v>
@@ -1985,19 +1985,19 @@
         <v>1697968</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1644285</v>
+        <v>1644038</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1751385</v>
+        <v>1753263</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.45485387758568</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4404732444484943</v>
+        <v>0.4404070287603933</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4691633965965742</v>
+        <v>0.4696663232447086</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3939</v>
@@ -2006,19 +2006,19 @@
         <v>3362404</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3270825</v>
+        <v>3283219</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3450792</v>
+        <v>3457529</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4631386597159325</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4505244834743596</v>
+        <v>0.4522316062039956</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4753132046121021</v>
+        <v>0.4762412001519834</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>1507968</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1444579</v>
+        <v>1443142</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1584380</v>
+        <v>1574925</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4275445838317316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4095722978242023</v>
+        <v>0.4091650427836879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4492092995874547</v>
+        <v>0.4465285128158242</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2556</v>
@@ -2056,19 +2056,19 @@
         <v>1696910</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1641790</v>
+        <v>1640083</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1749546</v>
+        <v>1746939</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4545704758764649</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4398048471369782</v>
+        <v>0.4393477363911404</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4686707677875888</v>
+        <v>0.4679723503672644</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4057</v>
@@ -2077,19 +2077,19 @@
         <v>3204877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3114616</v>
+        <v>3117779</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3288504</v>
+        <v>3290575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4414408672274986</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4290082295835292</v>
+        <v>0.4294439016087389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4529595615521859</v>
+        <v>0.4532449028783847</v>
       </c>
     </row>
     <row r="23">
